--- a/biology/Médecine/Trauma_chez_les_enfants_gazaouis/Trauma_chez_les_enfants_gazaouis.xlsx
+++ b/biology/Médecine/Trauma_chez_les_enfants_gazaouis/Trauma_chez_les_enfants_gazaouis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les psychotraumatismes des enfants et adolescents dans la bande de Gaza au XXIe siècle sont courants. Cette prévalence est liée à la violence significative qu'ils subissent à cause du conflit israélo-palestinien.
 </t>
@@ -511,9 +523,11 @@
           <t>Prévalence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon une revue de la littérature médicale de 2011[1]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon une revue de la littérature médicale de 2011:
         « A number of epidemiological studies have established the psychological impact of war trauma that included PTSD reactions ranging from 10 to 71%, anxiety symptoms of clinical significance between 21 and 34%, and depression symptoms of up to 40%, depending on the extent of exposure and sampling characteristics. »
         « Un certain nombre d'études épidémiologiques ont établi l'impact psychologique des traumatismes de guerre, à savoir des réactions de stress post-traumatique touchant de 10 à 71 % de la population des mineurs, des symptômes d'anxiété d'importance clinique en affectant de 21 à 34 %, et jusqu'à 40 % pour les symptômes de dépression, en fonction de l'ampleur de l'exposition et des caractéristiques de l'échantillonnage. »
 </t>
@@ -544,9 +558,11 @@
           <t>Rôle du conflit</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon un article de revue de 2023[2]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon un article de revue de 2023:
         « The determinants of traumatic stress that increased the of mental health problems were also identified, including exposure to violence and destruction, loss of family members and friends. »
         « Les facteurs déterminants du stress traumatique, qui augmentent le risque de problèmes de santé mentale, incluent notamment l'exposition à la violence et à la destruction, et la perte de membres de la famille et d'amis. »
 </t>
